--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kubrickgroup-my.sharepoint.com/personal/sampurle_kubrickgroup_com/Documents/SQL/Banking Project/Banking_Team_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{B8A3B69B-E2C5-4235-A0A7-588BA3E2FF92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5DA0ABBA-9E16-4671-8301-EF6E90F3EBD9}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{B8A3B69B-E2C5-4235-A0A7-588BA3E2FF92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{18EB6B7D-F1BE-4548-BF50-ED025F15B378}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2CEF785F-F8AE-4EA2-9D0F-C5309085FE4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CEF785F-F8AE-4EA2-9D0F-C5309085FE4E}"/>
   </bookViews>
   <sheets>
     <sheet name="CompetitorBanks" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>AB</t>
   </si>
@@ -107,14 +107,20 @@
   <si>
     <t>Per</t>
   </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,8 +152,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -250,31 +258,31 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>AB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>YZ</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>WX</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>MN</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>CD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>QR</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>EF</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>AB</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>KL</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CD</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>ST</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>IJ</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>QR</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>YZ</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>OP</c:v>
@@ -294,77 +302,95 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CompetitorBanks!$B$2:$B$11</c:f>
+              <c:f>CompetitorBanks!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>AB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>YZ</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>WX</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>MN</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>CD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>QR</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>EF</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>AB</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>KL</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CD</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>ST</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>IJ</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>QR</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>YZ</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>OP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>UV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>GH</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>KL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CompetitorBanks!$C$2:$C$11</c:f>
+              <c:f>CompetitorBanks!$C$2:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>49720423</c:v>
+                  <c:v>4335.7831999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50627470</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>50959607</c:v>
+                  <c:v>4828.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4962.3558999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54138718</c:v>
+                  <c:v>7377.4246999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55168433</c:v>
+                  <c:v>7586.1466</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57608541</c:v>
+                  <c:v>10502.5728</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60906200</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>61098611</c:v>
+                  <c:v>12574.9272</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13132.487800000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62552480</c:v>
+                  <c:v>13738.5309</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62846553</c:v>
+                  <c:v>14431.099200000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19466.690399999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20565.455600000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21294.755799999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -376,6 +402,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -395,6 +422,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Other Bank</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -460,7 +542,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Value (CZK)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -582,7 +719,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average Transaction Value by Bank - OUT</a:t>
+              <a:t>Sum of Transaction Value by Bank - OUT</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -638,77 +775,95 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CompetitorBanks!$F$2:$F$11</c:f>
+              <c:f>CompetitorBanks!$F$2:$F$14</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>OP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>YZ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>QR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WX</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>UV</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>MN</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CD</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>OP</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>YZ</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>GH</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UV</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>IJ</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>WX</c:v>
+                  <c:v>AB</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>AB</c:v>
+                  <c:v>CD</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>GH</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>KL</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>ST</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>EF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CompetitorBanks!$H$2:$H$11</c:f>
+              <c:f>CompetitorBanks!$H$2:$H$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>44913761.700000003</c:v>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1278581</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46529176.899999999</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>46681942</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>50581170.700000003</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>50644242.299999997</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>50928055.399999999</c:v>
+                  <c:v>1469431.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1974204.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2239462.3999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2382454</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2401211.2000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51008281.700000003</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>52130963.399999999</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>54216180.799999997</c:v>
+                  <c:v>2592314</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2612160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2683803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55240414</c:v>
+                  <c:v>2807837.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3827634</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3917406.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4123454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,6 +894,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Other Bank</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -804,7 +1014,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Outflux (CZK)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -982,6 +1247,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D851-449C-94B3-9FE028FC2E2C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -997,6 +1267,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D851-449C-94B3-9FE028FC2E2C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1012,6 +1287,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D851-449C-94B3-9FE028FC2E2C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1027,6 +1307,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D851-449C-94B3-9FE028FC2E2C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1106,21 +1391,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$5</c:f>
+              <c:f>Sheet2!$G$12:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.1350163350163347E-2</c:v>
+                  <c:v>5.1079812206572768E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38185050985050983</c:v>
+                  <c:v>0.37126760563380284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3736034056034056</c:v>
+                  <c:v>0.36394366197183098</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19319592119592119</c:v>
+                  <c:v>0.21370892018779342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1672,7 +1957,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$B$2:$B$5</c:f>
+              <c:f>Sheet2!$B$12:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1692,28 +1977,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$2:$E$5</c:f>
+              <c:f>Sheet2!$D$12:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>39630.370499999997</c:v>
+                  <c:v>38317.174599999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41140.2307</c:v>
+                  <c:v>39160.070299999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40908.249300000003</c:v>
+                  <c:v>39341.775999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27913.328699999998</c:v>
+                  <c:v>26409.537400000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-864C-4752-9109-926F8F7F1E30}"/>
+              <c16:uniqueId val="{00000001-C095-4A68-A4E4-E7C446B669E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4787,15 +5072,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5233,297 +5518,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D84883-72AD-4E01-B2F2-C2FF0B12FB4E}">
-  <dimension ref="B1:H14"/>
+  <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="2"/>
+    <col min="7" max="8" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
-        <v>49720423</v>
-      </c>
-      <c r="D2" s="1">
-        <v>52130963.399999999</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1">
-        <v>50627470</v>
-      </c>
-      <c r="H2" s="1">
-        <v>44913761.700000003</v>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4335.7831999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3758.5034999999998</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6104355</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1278581</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1">
-        <v>50627470</v>
-      </c>
-      <c r="D3" s="1">
-        <v>44913761.700000003</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>57608541</v>
-      </c>
-      <c r="H3">
-        <v>46529176.899999999</v>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4828.29</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2494.7901000000002</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1931316</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1469431.4</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>50959607</v>
-      </c>
-      <c r="D4">
-        <v>57432096.600000001</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1">
-        <v>62846553</v>
-      </c>
-      <c r="H4" s="1">
-        <v>46681942</v>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4962.3558999999996</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2799.328</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3171777</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1974204.5</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>54138718</v>
-      </c>
-      <c r="D5" s="1">
-        <v>54216180.799999997</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1">
-        <v>62552480</v>
-      </c>
-      <c r="H5" s="1">
-        <v>50581170.700000003</v>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7377.4246999999996</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2304.4252999999999</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2">
+        <v>585558</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2239462.3999999999</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>55168433</v>
-      </c>
-      <c r="D6" s="1">
-        <v>55479364.799999997</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>75312051</v>
-      </c>
-      <c r="H6" s="1">
-        <v>50644242.299999997</v>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7586.1466</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3018.9009999999998</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6287741</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2382454</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>57608541</v>
-      </c>
-      <c r="D7" s="1">
-        <v>46529176.899999999</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1">
-        <v>68213892</v>
-      </c>
-      <c r="H7" s="1">
-        <v>50928055.399999999</v>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10502.5728</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2401.7085999999999</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2500947</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2401211.2000000002</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12574.9272</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4322.2788</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1">
-        <v>60906200</v>
-      </c>
-      <c r="D8" s="1">
-        <v>51008281.700000003</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8">
-        <v>60906200</v>
-      </c>
-      <c r="H8">
-        <v>51008281.700000003</v>
+      <c r="G8" s="2">
+        <v>5096995</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2592314</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>61098611</v>
-      </c>
-      <c r="D9">
-        <v>56847636</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1">
-        <v>49720423</v>
-      </c>
-      <c r="H9" s="1">
-        <v>52130963.399999999</v>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>13132.487800000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4295.4021000000002</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>880164</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2612160</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>62552480</v>
-      </c>
-      <c r="D10" s="1">
-        <v>50581170.700000003</v>
-      </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>54138718</v>
-      </c>
-      <c r="H10" s="1">
-        <v>54216180.799999997</v>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13738.5309</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2746.0953</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1137922</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2683803</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1">
-        <v>62846553</v>
-      </c>
-      <c r="D11" s="1">
-        <v>46681942</v>
-      </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>72326974</v>
-      </c>
-      <c r="H11">
-        <v>55240414</v>
+      <c r="C11" s="2">
+        <v>14431.099200000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2720.3851</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>8349575</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2807837.6</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12">
-        <v>68213892</v>
-      </c>
-      <c r="D12">
-        <v>50928055.399999999</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="C12" s="2">
+        <v>19466.690399999999</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2789.7586999999999</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="1">
-        <v>55168433</v>
-      </c>
-      <c r="H12" s="1">
-        <v>55479364.799999997</v>
+      <c r="G12" s="2">
+        <v>3662698</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3827634</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20565.455600000001</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3126.7678999999998</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1">
-        <v>72326974</v>
-      </c>
-      <c r="D13" s="1">
-        <v>55240414</v>
-      </c>
-      <c r="F13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1">
-        <v>61098611</v>
-      </c>
-      <c r="H13" s="1">
-        <v>56847636</v>
+      <c r="G13" s="2">
+        <v>4845888</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3917406.8</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>75312051</v>
-      </c>
-      <c r="D14" s="1">
-        <v>50644242.299999997</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>21294.755799999999</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2957.9859999999999</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="1">
-        <v>50959607</v>
-      </c>
-      <c r="H14" s="1">
-        <v>57432096.600000001</v>
+      <c r="G14" s="2">
+        <v>3282056</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4123454</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5537,10 +5833,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D524B5B-8EE4-4B67-852B-CB348057C963}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5572,7 +5868,7 @@
       <c r="C2">
         <v>64836</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <f>C2/C$7</f>
         <v>5.1350163350163347E-2</v>
       </c>
@@ -5582,7 +5878,7 @@
       <c r="F2">
         <v>2569474706.7413001</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <f>F2/F$7</f>
         <v>5.296698991270269E-2</v>
       </c>
@@ -5597,7 +5893,7 @@
       <c r="C3">
         <v>482134</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <f>C3/C$7</f>
         <v>0.38185050985050983</v>
       </c>
@@ -5607,7 +5903,7 @@
       <c r="F3">
         <v>19835104026.102299</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <f>F3/F$7</f>
         <v>0.40887958620942599</v>
       </c>
@@ -5622,7 +5918,7 @@
       <c r="C4">
         <v>471721</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f>C4/C$7</f>
         <v>0.3736034056034056</v>
       </c>
@@ -5632,7 +5928,7 @@
       <c r="F4">
         <v>19297280294.108299</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <f>F4/F$7</f>
         <v>0.39779292164230656</v>
       </c>
@@ -5647,7 +5943,7 @@
       <c r="C5">
         <v>243934</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f>C5/C$7</f>
         <v>0.19319592119592119</v>
       </c>
@@ -5657,7 +5953,7 @@
       <c r="F5">
         <v>6809009930.7926998</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <f>F5/F$7</f>
         <v>0.14036050223556476</v>
       </c>
@@ -5668,17 +5964,118 @@
         <v>1262625</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:F7" si="0">SUM(E2:E5)</f>
+        <f>SUM(E2:E5)</f>
         <v>149592.17920000001</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F7" si="0">SUM(F2:F5)</f>
         <v>48510868957.744598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>272</v>
+      </c>
+      <c r="D12">
+        <v>38317.174599999998</v>
+      </c>
+      <c r="E12">
+        <v>10422271.512</v>
+      </c>
+      <c r="G12" s="1">
+        <f>C12/C$17</f>
+        <v>5.1079812206572768E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>1977</v>
+      </c>
+      <c r="D13">
+        <v>39160.070299999999</v>
+      </c>
+      <c r="E13">
+        <v>77419459.045399994</v>
+      </c>
+      <c r="G13" s="1">
+        <f>C13/C$17</f>
+        <v>0.37126760563380284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1938</v>
+      </c>
+      <c r="D14">
+        <v>39341.775999999998</v>
+      </c>
+      <c r="E14">
+        <v>76244361.891900003</v>
+      </c>
+      <c r="G14" s="1">
+        <f>C14/C$17</f>
+        <v>0.36394366197183098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>1138</v>
+      </c>
+      <c r="D15">
+        <v>26409.537400000001</v>
+      </c>
+      <c r="E15">
+        <v>30054053.645</v>
+      </c>
+      <c r="G15" s="1">
+        <f>C15/C$17</f>
+        <v>0.21370892018779342</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f>SUM(C12:C16)</f>
+        <v>5325</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-    <sortCondition ref="A2:A5"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:E15">
+    <sortCondition ref="A12:A15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kubrickgroup-my.sharepoint.com/personal/sampurle_kubrickgroup_com/Documents/SQL/Banking Project/Banking_Team_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{B8A3B69B-E2C5-4235-A0A7-588BA3E2FF92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{18EB6B7D-F1BE-4548-BF50-ED025F15B378}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{B8A3B69B-E2C5-4235-A0A7-588BA3E2FF92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{56D4C3EA-415F-492E-9750-36222012FCCA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CEF785F-F8AE-4EA2-9D0F-C5309085FE4E}"/>
   </bookViews>
@@ -208,7 +208,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average Transaction Value by Bank - IN</a:t>
+              <a:t>Sum</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Transaction Value by Bank - IN</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -258,34 +266,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>AB</c:v>
+                  <c:v>MN</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ST</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IJ</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>YZ</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>QR</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>WX</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>MN</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CD</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>QR</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>KL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>UV</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GH</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>EF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ST</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>IJ</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>OP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -306,43 +314,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>MN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ST</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IJ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>YZ</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>QR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WX</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>KL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>UV</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GH</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>EF</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>AB</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>YZ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WX</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MN</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>CD</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>QR</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>EF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ST</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>IJ</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>OP</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UV</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>GH</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>KL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -354,43 +362,43 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4335.7831999999999</c:v>
+                  <c:v>585558</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4828.29</c:v>
+                  <c:v>880164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4962.3558999999996</c:v>
+                  <c:v>1137922</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7377.4246999999996</c:v>
+                  <c:v>1931316</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7586.1466</c:v>
+                  <c:v>2500947</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10502.5728</c:v>
+                  <c:v>3171777</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12574.9272</c:v>
+                  <c:v>3282056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13132.487800000001</c:v>
+                  <c:v>3662698</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13738.5309</c:v>
+                  <c:v>4845888</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14431.099200000001</c:v>
+                  <c:v>5096995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19466.690399999999</c:v>
+                  <c:v>6104355</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20565.455600000001</c:v>
+                  <c:v>6287741</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21294.755799999999</c:v>
+                  <c:v>8349575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -402,7 +410,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -5521,7 +5528,7 @@
   <dimension ref="B1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5556,13 +5563,13 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2">
-        <v>4335.7831999999999</v>
+        <v>585558</v>
       </c>
       <c r="D2" s="2">
-        <v>3758.5034999999998</v>
+        <v>2304.4252999999999</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
@@ -5576,13 +5583,13 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>4828.29</v>
+        <v>880164</v>
       </c>
       <c r="D3" s="2">
-        <v>2494.7901000000002</v>
+        <v>4295.4021000000002</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
@@ -5596,13 +5603,13 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2">
-        <v>4962.3558999999996</v>
+        <v>1137922</v>
       </c>
       <c r="D4" s="2">
-        <v>2799.328</v>
+        <v>2746.0953</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>5</v>
@@ -5616,13 +5623,13 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>7377.4246999999996</v>
+        <v>1931316</v>
       </c>
       <c r="D5" s="2">
-        <v>2304.4252999999999</v>
+        <v>2494.7901000000002</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>8</v>
@@ -5636,13 +5643,13 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>7586.1466</v>
+        <v>2500947</v>
       </c>
       <c r="D6" s="2">
-        <v>3018.9009999999998</v>
+        <v>2401.7085999999999</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
@@ -5656,13 +5663,13 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>10502.5728</v>
+        <v>3171777</v>
       </c>
       <c r="D7" s="2">
-        <v>2401.7085999999999</v>
+        <v>2799.328</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>22</v>
@@ -5676,13 +5683,13 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>12574.9272</v>
+        <v>3282056</v>
       </c>
       <c r="D8" s="2">
-        <v>4322.2788</v>
+        <v>2957.9859999999999</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>21</v>
@@ -5696,13 +5703,13 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
-        <v>13132.487800000001</v>
+        <v>3662698</v>
       </c>
       <c r="D9" s="2">
-        <v>4295.4021000000002</v>
+        <v>2789.7586999999999</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>0</v>
@@ -5716,13 +5723,13 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2">
-        <v>13738.5309</v>
+        <v>4845888</v>
       </c>
       <c r="D10" s="2">
-        <v>2746.0953</v>
+        <v>3126.7678999999998</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>1</v>
@@ -5736,13 +5743,13 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
-        <v>14431.099200000001</v>
+        <v>5096995</v>
       </c>
       <c r="D11" s="2">
-        <v>2720.3851</v>
+        <v>4322.2788</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>2</v>
@@ -5756,13 +5763,13 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>19466.690399999999</v>
+        <v>6104355</v>
       </c>
       <c r="D12" s="2">
-        <v>2789.7586999999999</v>
+        <v>3758.5034999999998</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>3</v>
@@ -5776,13 +5783,13 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>20565.455600000001</v>
+        <v>6287741</v>
       </c>
       <c r="D13" s="2">
-        <v>3126.7678999999998</v>
+        <v>3018.9009999999998</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>6</v>
@@ -5796,13 +5803,13 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>21294.755799999999</v>
+        <v>8349575</v>
       </c>
       <c r="D14" s="2">
-        <v>2957.9859999999999</v>
+        <v>2720.3851</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>20</v>
@@ -5823,8 +5830,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:H14">
-    <sortCondition ref="H2:H14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D14">
+    <sortCondition ref="C2:C14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
